--- a/data/userCase.xlsx
+++ b/data/userCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\csdn测试\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0085722C-E331-4D1A-9014-7EC1DBD0E8DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4AEF5B-99FA-45BB-B7D6-8411EE233475}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,12 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://passport.csdn.net/v2/register/pc/login/doLogin</t>
-  </si>
-  <si>
-    <t>https://passport.csdn.net/v3/register/pc/login/doLogin</t>
-  </si>
-  <si>
     <t>loginType=1&amp;userIdentification=401630242@qq.com&amp;pwdOrVerifyCode=627292&amp;uaToken=&amp;webUmidToken=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +72,10 @@
   </si>
   <si>
     <t>loginType=1&amp;userIdentification=xiaoming&amp;pwdOrVerifyCode=&amp;uaToken=&amp;webUmidToken=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://passport.csdn.net/v1/register/pc/login/doLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +415,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -460,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -474,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -489,8 +487,10 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{EAF483DF-55F8-4573-B672-E6BA2EA8D667}"/>
     <hyperlink ref="B3:B4" r:id="rId2" display="https://passport.csdn.net/v1/register/pc/login/doLogin" xr:uid="{993348AE-B600-43AC-B270-BE1949B8DC2F}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{43349329-F35B-481A-9254-CC7B791A373C}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{6931644C-7D83-4D66-99F9-4C192A07B5FE}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{7A03F543-9ED0-41A1-A3DE-1A7865DC3C9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/userCase.xlsx
+++ b/data/userCase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\csdn测试\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4AEF5B-99FA-45BB-B7D6-8411EE233475}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BBFA36-6219-4ED8-8B92-035E091AF3FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="3975" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +78,36 @@
   <si>
     <t>https://passport.csdn.net/v1/register/pc/login/doLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://so.csdn.net/so/search/s.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=11&amp;t=blog&amp;u=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=&amp;t=blog&amp;u=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q=&amp;t=&amp;u=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search2</t>
+  </si>
+  <si>
+    <t>search3</t>
   </si>
 </sst>
 </file>
@@ -414,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -493,4 +522,380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE56B064-509C-425C-86B7-24D0823D1BBF}">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B1B880FF-BFF6-4B4D-88F6-E5396C937B29}"/>
+    <hyperlink ref="B3:B24" r:id="rId2" display="https://so.csdn.net/so/search/s.do" xr:uid="{DF6CF3B9-3430-44CD-82BF-EA5450A77BE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
 </file>